--- a/biology/Mycologie/Tapinellaceae/Tapinellaceae.xlsx
+++ b/biology/Mycologie/Tapinellaceae/Tapinellaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Tapinellaceae sont une famille de champignons de l’ordre des Boletales. 
 Il contient trois genres, les Bondarcevomyces, les Pseudomerulius et les Tapinella et sept espèces.[réf. nécessaire]
@@ -512,13 +524,15 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (2 novembre 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (2 novembre 2013) :
 genre Bondarcevomyces
 genre Pseudomerulius
 genre Tapinella
-Selon MycoBank                                            (2 novembre 2013)[2] : 
+Selon MycoBank                                            (2 novembre 2013) : 
 genre Bondarcevomyces
 Bondarcevomyces taxi
 genre Pseudomerulius
@@ -530,7 +544,7 @@
 Tapinella atrotomentosa
 Tapinella corrugata
 sous-famille des Tapinellineae
-Selon NCBI  (2 novembre 2013)[3] :
+Selon NCBI  (2 novembre 2013) :
 genre Bondarcevomyces
 Bondarcevomyces taxi
 genre Pseudomerulius
